--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728151</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.9347585163891</v>
+        <v>44636.71790538476</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.9347585163891</v>
+        <v>44636.71790538476</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189470371.867065</v>
+        <v>49092684.18703078</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10295.07151958695</v>
+        <v>1146656.880116538</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19502.22136292075</v>
+        <v>2122674.086374299</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28709.37120625455</v>
+        <v>3098691.292632061</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37943.08976706615</v>
+        <v>4074708.498889822</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47176.80832787775</v>
+        <v>5050725.705147584</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56410.52688868935</v>
+        <v>6026742.911405344</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65644.24544950096</v>
+        <v>7002760.117663101</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74877.96401031257</v>
+        <v>7978777.323920859</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84111.68257112415</v>
+        <v>8954794.530178614</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93345.40113193572</v>
+        <v>9930811.736436373</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102579.1196927473</v>
+        <v>10906828.94269414</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>111812.8382535589</v>
+        <v>11882846.1489519</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121046.5568143704</v>
+        <v>12858863.35520967</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130332.5673580481</v>
+        <v>13827961.8701921</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139618.5779017258</v>
+        <v>14797060.38517454</v>
       </c>
     </row>
   </sheetData>
